--- a/data/trans_bre/P28B_1_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P28B_1_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -636,22 +636,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>12,99</t>
+          <t>12,72</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,63</t>
+          <t>3,14</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>11,35</t>
+          <t>10,92</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7,2</t>
+          <t>5,76</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -661,27 +661,27 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>31,55%</t>
+          <t>30,89%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>12,79%</t>
+          <t>11,07%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>65,25%</t>
+          <t>62,27%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>47,23%</t>
+          <t>35,75%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>56,11%</t>
+          <t>56,13%</t>
         </is>
       </c>
     </row>
@@ -694,52 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,26; 21,96</t>
+          <t>1,5; 24,1</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,0; 14,82</t>
+          <t>-7,67; 14,02</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,19; 19,94</t>
+          <t>0,98; 19,9</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 15,94</t>
+          <t>-4,89; 14,61</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,75; 29,29</t>
+          <t>2,24; 28,73</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,74; 62,24</t>
+          <t>1,45; 66,06</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-21,36; 64,6</t>
+          <t>-23,97; 60,23</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,53; 157,78</t>
+          <t>2,16; 155,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-16,63; 152,95</t>
+          <t>-21,35; 139,0</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,56; 143,25</t>
+          <t>5,99; 144,97</t>
         </is>
       </c>
     </row>
@@ -756,52 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>13,95</t>
+          <t>13,94</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>11,19</t>
+          <t>10,69</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>9,51</t>
+          <t>9,93</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>11,63</t>
+          <t>11,85</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>9,45</t>
+          <t>9,42</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>41,37%</t>
+          <t>41,35%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>46,06%</t>
+          <t>43,05%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>52,82%</t>
+          <t>55,88%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>76,52%</t>
+          <t>79,38%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>41,66%</t>
+          <t>41,47%</t>
         </is>
       </c>
     </row>
@@ -814,52 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,31; 24,18</t>
+          <t>0,93; 25,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 24,61</t>
+          <t>-2,81; 22,28</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,4; 16,92</t>
+          <t>1,02; 17,51</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,87; 20,42</t>
+          <t>1,51; 19,97</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 20,62</t>
+          <t>-4,49; 19,72</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,03; 87,47</t>
+          <t>1,13; 90,08</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-10,2; 149,87</t>
+          <t>-11,44; 131,8</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,96; 125,6</t>
+          <t>4,83; 123,71</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,58; 194,42</t>
+          <t>-0,59; 195,66</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-13,1; 134,12</t>
+          <t>-16,41; 124,11</t>
         </is>
       </c>
     </row>
@@ -881,17 +881,17 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,44</t>
+          <t>3,98</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,68</t>
+          <t>6,81</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,67</t>
+          <t>3,63</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -901,27 +901,27 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>44,15%</t>
+          <t>44,14%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>20,97%</t>
+          <t>14,08%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>37,08%</t>
+          <t>37,64%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>20,47%</t>
+          <t>19,91%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>70,41%</t>
+          <t>70,46%</t>
         </is>
       </c>
     </row>
@@ -934,52 +934,52 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,46; 25,12</t>
+          <t>7,49; 25,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,93; 15,08</t>
+          <t>-4,18; 12,99</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,41; 13,36</t>
+          <t>0,6; 13,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 9,55</t>
+          <t>-4,92; 10,01</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,99; 20,35</t>
+          <t>5,07; 21,15</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>19,29; 77,39</t>
+          <t>16,35; 77,04</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-11,36; 74,07</t>
+          <t>-12,24; 56,43</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,89; 93,9</t>
+          <t>3,34; 91,37</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-19,24; 67,08</t>
+          <t>-22,02; 69,25</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>21,54; 147,78</t>
+          <t>21,89; 144,71</t>
         </is>
       </c>
     </row>
@@ -996,22 +996,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>9,61</t>
+          <t>9,48</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>10,61</t>
+          <t>10,47</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>11,3</t>
+          <t>11,05</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>12,31</t>
+          <t>12,52</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1021,22 +1021,22 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>24,59%</t>
+          <t>24,33%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>50,83%</t>
+          <t>48,84%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>62,84%</t>
+          <t>60,44%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>95,76%</t>
+          <t>97,42%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1054,52 +1054,52 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,16; 17,53</t>
+          <t>1,55; 17,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,79; 18,35</t>
+          <t>3,14; 18,56</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,91; 17,21</t>
+          <t>5,07; 17,39</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,73; 18,25</t>
+          <t>5,87; 18,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,12; 25,54</t>
+          <t>7,76; 25,23</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,7; 51,04</t>
+          <t>3,29; 49,74</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>14,22; 103,14</t>
+          <t>12,12; 105,28</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>22,07; 113,6</t>
+          <t>21,01; 113,18</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>29,85; 182,23</t>
+          <t>34,79; 182,17</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>28,5; 183,08</t>
+          <t>30,65; 176,12</t>
         </is>
       </c>
     </row>
@@ -1116,22 +1116,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>10,8</t>
+          <t>10,79</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>6,32</t>
+          <t>6,47</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>5,78</t>
+          <t>5,25</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,97</t>
+          <t>1,91</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1146,22 +1146,22 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>33,13%</t>
+          <t>33,72%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>30,33%</t>
+          <t>26,98%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>17,06%</t>
+          <t>16,29%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>30,99%</t>
+          <t>31,02%</t>
         </is>
       </c>
     </row>
@@ -1174,52 +1174,52 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,86; 19,32</t>
+          <t>1,03; 19,11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 14,71</t>
+          <t>-2,99; 14,58</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 13,24</t>
+          <t>-3,69; 12,13</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 7,57</t>
+          <t>-3,49; 7,98</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 15,59</t>
+          <t>-2,08; 15,18</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,53; 75,83</t>
+          <t>3,03; 72,8</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-14,14; 97,23</t>
+          <t>-12,31; 93,31</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-8,04; 84,33</t>
+          <t>-16,04; 77,59</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-28,07; 89,78</t>
+          <t>-26,51; 86,61</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>-12,76; 99,33</t>
+          <t>-10,95; 94,1</t>
         </is>
       </c>
     </row>
@@ -1236,52 +1236,52 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>4,33</t>
+          <t>5,16</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>11,09</t>
+          <t>10,98</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>6,03</t>
+          <t>6,96</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>1,35</t>
+          <t>1,36</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>3,2%</t>
+          <t>2,8%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>35,68%</t>
+          <t>43,46%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>172,04%</t>
+          <t>167,04%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>66,65%</t>
+          <t>73,75%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>11,06%</t>
+          <t>11,16%</t>
         </is>
       </c>
     </row>
@@ -1294,52 +1294,52 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-8,04; 9,22</t>
+          <t>-7,33; 10,04</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 11,37</t>
+          <t>-2,19; 11,77</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,65; 17,14</t>
+          <t>4,35; 17,34</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 12,52</t>
+          <t>1,07; 15,06</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-6,84; 9,99</t>
+          <t>-6,89; 10,39</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-24,1; 37,54</t>
+          <t>-22,3; 40,97</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-20,75; 138,7</t>
+          <t>-16,43; 138,45</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>28,97; 402,6</t>
+          <t>37,5; 473,41</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-11,48; 189,93</t>
+          <t>-0,82; 224,94</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>-42,92; 116,57</t>
+          <t>-42,92; 127,25</t>
         </is>
       </c>
     </row>
@@ -1356,22 +1356,22 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>10,18</t>
+          <t>10,09</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>6,34</t>
+          <t>6,07</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>8,87</t>
+          <t>8,76</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>6,88</t>
+          <t>6,91</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1381,22 +1381,22 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>28,75%</t>
+          <t>28,51%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>28,92%</t>
+          <t>26,93%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>54,35%</t>
+          <t>53,29%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>49,66%</t>
+          <t>49,07%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
@@ -1414,52 +1414,59 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,1; 14,01</t>
+          <t>6,38; 13,96</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,21; 9,85</t>
+          <t>1,94; 9,76</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,16; 12,07</t>
+          <t>5,47; 11,52</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,7; 10,0</t>
+          <t>3,57; 9,96</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,99; 13,2</t>
+          <t>5,15; 13,33</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>15,78; 42,41</t>
+          <t>16,77; 41,95</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>9,32; 50,25</t>
+          <t>7,75; 48,52</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>32,21; 81,76</t>
+          <t>30,88; 77,4</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>23,61; 80,99</t>
+          <t>20,91; 80,45</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>23,28; 74,98</t>
+          <t>21,85; 75,4</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
